--- a/data/pca/factorExposure/factorExposure_2009-05-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01738852292170654</v>
+        <v>-0.01668280268484363</v>
       </c>
       <c r="C2">
-        <v>0.00164253631954509</v>
+        <v>0.001115470802549779</v>
       </c>
       <c r="D2">
-        <v>-0.01010920087468337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0100298224662645</v>
+      </c>
+      <c r="E2">
+        <v>0.002371039806484312</v>
+      </c>
+      <c r="F2">
+        <v>0.01209208204979811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08912041490088232</v>
+        <v>-0.09172649299823074</v>
       </c>
       <c r="C4">
-        <v>0.02017673753323262</v>
+        <v>0.01540335354922813</v>
       </c>
       <c r="D4">
-        <v>-0.0777178974479537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0820801966161593</v>
+      </c>
+      <c r="E4">
+        <v>0.0270899152420697</v>
+      </c>
+      <c r="F4">
+        <v>-0.03266911311324493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-3.264374470777273e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.943444595053935e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0001099468850356924</v>
+      </c>
+      <c r="E5">
+        <v>-3.243472532523258e-05</v>
+      </c>
+      <c r="F5">
+        <v>9.998552118158525e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1536557689470332</v>
+        <v>-0.1620188459306768</v>
       </c>
       <c r="C6">
-        <v>0.03122740550126565</v>
+        <v>0.03022281416406881</v>
       </c>
       <c r="D6">
-        <v>0.03605717877175755</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02627585094786885</v>
+      </c>
+      <c r="E6">
+        <v>0.01147462156648464</v>
+      </c>
+      <c r="F6">
+        <v>-0.04033929034561752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05978313623164674</v>
+        <v>-0.06216148039620268</v>
       </c>
       <c r="C7">
-        <v>0.002122999175429128</v>
+        <v>-0.001105115507305011</v>
       </c>
       <c r="D7">
-        <v>-0.04835399453310602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05377829556628114</v>
+      </c>
+      <c r="E7">
+        <v>0.01545738906646309</v>
+      </c>
+      <c r="F7">
+        <v>-0.04922260634405658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06126190056667464</v>
+        <v>-0.05722869495774996</v>
       </c>
       <c r="C8">
-        <v>-0.009799898851732184</v>
+        <v>-0.01161282082511736</v>
       </c>
       <c r="D8">
-        <v>-0.02657863958827869</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03021230017691049</v>
+      </c>
+      <c r="E8">
+        <v>0.01947154736632919</v>
+      </c>
+      <c r="F8">
+        <v>0.02883329164481207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06945152336721318</v>
+        <v>-0.07135131955370028</v>
       </c>
       <c r="C9">
-        <v>0.01616403510041144</v>
+        <v>0.0109562114853546</v>
       </c>
       <c r="D9">
-        <v>-0.08015969005257896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08577956424528504</v>
+      </c>
+      <c r="E9">
+        <v>0.02547483214490465</v>
+      </c>
+      <c r="F9">
+        <v>-0.04906532084603522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08628726574783271</v>
+        <v>-0.08777318145981405</v>
       </c>
       <c r="C10">
-        <v>0.01690794016570904</v>
+        <v>0.02206464627617825</v>
       </c>
       <c r="D10">
-        <v>0.1652304581230114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1590132874379958</v>
+      </c>
+      <c r="E10">
+        <v>-0.03193800820640418</v>
+      </c>
+      <c r="F10">
+        <v>0.05871331796287872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09028605835963198</v>
+        <v>-0.08727130742364404</v>
       </c>
       <c r="C11">
-        <v>0.01755691551053301</v>
+        <v>0.01222178344568741</v>
       </c>
       <c r="D11">
-        <v>-0.1120444101887912</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1184614609260647</v>
+      </c>
+      <c r="E11">
+        <v>0.05232183990193881</v>
+      </c>
+      <c r="F11">
+        <v>-0.02506312574820298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09735824390951482</v>
+        <v>-0.0914100777066586</v>
       </c>
       <c r="C12">
-        <v>0.01624697194452581</v>
+        <v>0.009992738230357278</v>
       </c>
       <c r="D12">
-        <v>-0.1193856569779048</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1336303124794167</v>
+      </c>
+      <c r="E12">
+        <v>0.05258237390725345</v>
+      </c>
+      <c r="F12">
+        <v>-0.03127872607054238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04496454700033079</v>
+        <v>-0.04373775478972906</v>
       </c>
       <c r="C13">
-        <v>0.006847081499948451</v>
+        <v>0.003061335964651936</v>
       </c>
       <c r="D13">
-        <v>-0.04527819330230225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05439254879161635</v>
+      </c>
+      <c r="E13">
+        <v>0.0005424316573494607</v>
+      </c>
+      <c r="F13">
+        <v>-0.004265927606468252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02017251061745119</v>
+        <v>-0.02392737255255956</v>
       </c>
       <c r="C14">
-        <v>0.01544025204019333</v>
+        <v>0.01420499937438808</v>
       </c>
       <c r="D14">
-        <v>-0.03211412273397764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03335525237254879</v>
+      </c>
+      <c r="E14">
+        <v>0.02251375956744513</v>
+      </c>
+      <c r="F14">
+        <v>-0.01185638187264686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03444665800516917</v>
+        <v>-0.03445355568668169</v>
       </c>
       <c r="C15">
-        <v>0.007746411589904247</v>
+        <v>0.005962083023059037</v>
       </c>
       <c r="D15">
-        <v>-0.04609574943888713</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04663824308574272</v>
+      </c>
+      <c r="E15">
+        <v>0.008618141178340286</v>
+      </c>
+      <c r="F15">
+        <v>-0.02959244841461152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07417350838307066</v>
+        <v>-0.07175185235998074</v>
       </c>
       <c r="C16">
-        <v>0.007655736137906827</v>
+        <v>0.001940439728165508</v>
       </c>
       <c r="D16">
-        <v>-0.1157980949191609</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1297236527214622</v>
+      </c>
+      <c r="E16">
+        <v>0.06507629037378845</v>
+      </c>
+      <c r="F16">
+        <v>-0.02859495519437182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001183724627061595</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0003772341287045477</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002139456793701615</v>
+      </c>
+      <c r="E17">
+        <v>0.001761266361249594</v>
+      </c>
+      <c r="F17">
+        <v>0.002363197957001323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02508881173778587</v>
+        <v>-0.0427774696617305</v>
       </c>
       <c r="C18">
-        <v>-0.001775766496786576</v>
+        <v>-0.001693761293335617</v>
       </c>
       <c r="D18">
-        <v>-0.02236362428612579</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01631607792896007</v>
+      </c>
+      <c r="E18">
+        <v>-0.004640837879791972</v>
+      </c>
+      <c r="F18">
+        <v>0.00924156064917064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06448450509412557</v>
+        <v>-0.06301699956658077</v>
       </c>
       <c r="C20">
-        <v>0.00591508003548136</v>
+        <v>0.001945681634131094</v>
       </c>
       <c r="D20">
-        <v>-0.07265940664275093</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0790834261260152</v>
+      </c>
+      <c r="E20">
+        <v>0.06199907597238436</v>
+      </c>
+      <c r="F20">
+        <v>-0.02941333470366539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04090777449693183</v>
+        <v>-0.04264205886983037</v>
       </c>
       <c r="C21">
-        <v>0.01002945821230048</v>
+        <v>0.007370952187418134</v>
       </c>
       <c r="D21">
-        <v>-0.03443614295326439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03608544725491628</v>
+      </c>
+      <c r="E21">
+        <v>0.002506466466755401</v>
+      </c>
+      <c r="F21">
+        <v>0.02491034154219935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04106397431406379</v>
+        <v>-0.04258963511703343</v>
       </c>
       <c r="C22">
-        <v>0.001505151211175836</v>
+        <v>0.001075768852631183</v>
       </c>
       <c r="D22">
-        <v>-0.0008483235022833598</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.007006361414422424</v>
+      </c>
+      <c r="E22">
+        <v>0.03765945834510511</v>
+      </c>
+      <c r="F22">
+        <v>0.04852118051300568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0410188058209226</v>
+        <v>-0.0425586834190672</v>
       </c>
       <c r="C23">
-        <v>0.001491236841905003</v>
+        <v>0.001064108699209389</v>
       </c>
       <c r="D23">
-        <v>-0.0008770741749852986</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.007020915469760016</v>
+      </c>
+      <c r="E23">
+        <v>0.03768926032647506</v>
+      </c>
+      <c r="F23">
+        <v>0.04857588494094366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08152590400552706</v>
+        <v>-0.07773957796999384</v>
       </c>
       <c r="C24">
-        <v>0.008241359423645071</v>
+        <v>0.002724457925683433</v>
       </c>
       <c r="D24">
-        <v>-0.1171677920085973</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1226281402112467</v>
+      </c>
+      <c r="E24">
+        <v>0.05205277722450172</v>
+      </c>
+      <c r="F24">
+        <v>-0.03130346407280907</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08667953463214868</v>
+        <v>-0.08313976471137224</v>
       </c>
       <c r="C25">
-        <v>0.01070582481028446</v>
+        <v>0.005749968254234327</v>
       </c>
       <c r="D25">
-        <v>-0.1042503471981006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1108199880456999</v>
+      </c>
+      <c r="E25">
+        <v>0.03564740199801519</v>
+      </c>
+      <c r="F25">
+        <v>-0.02824631219470465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05783739263444327</v>
+        <v>-0.06086744431642174</v>
       </c>
       <c r="C26">
-        <v>0.01860198223374</v>
+        <v>0.01529587387389384</v>
       </c>
       <c r="D26">
-        <v>-0.0348205128265734</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0450633663104015</v>
+      </c>
+      <c r="E26">
+        <v>0.03334168222218939</v>
+      </c>
+      <c r="F26">
+        <v>0.007575857938645356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1343443943275909</v>
+        <v>-0.1435461050036517</v>
       </c>
       <c r="C28">
-        <v>0.01626681895079928</v>
+        <v>0.02405068217294631</v>
       </c>
       <c r="D28">
-        <v>0.2641795151007051</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2585030561563935</v>
+      </c>
+      <c r="E28">
+        <v>-0.06657026439269978</v>
+      </c>
+      <c r="F28">
+        <v>-0.004703232976194823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02643263937972421</v>
+        <v>-0.02904408463798031</v>
       </c>
       <c r="C29">
-        <v>0.01015719066188931</v>
+        <v>0.009352782914540902</v>
       </c>
       <c r="D29">
-        <v>-0.02980791891018625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03053189452215387</v>
+      </c>
+      <c r="E29">
+        <v>0.01878414530608824</v>
+      </c>
+      <c r="F29">
+        <v>0.01329106176557346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05853886345751327</v>
+        <v>-0.0559363068307616</v>
       </c>
       <c r="C30">
-        <v>0.007997479906910236</v>
+        <v>0.002866367198472862</v>
       </c>
       <c r="D30">
-        <v>-0.07982792313397004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08809800529576255</v>
+      </c>
+      <c r="E30">
+        <v>0.0146580155636198</v>
+      </c>
+      <c r="F30">
+        <v>-0.07883934230390149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05073613038813444</v>
+        <v>-0.05121026693265898</v>
       </c>
       <c r="C31">
-        <v>0.01781503365011897</v>
+        <v>0.01647802013476244</v>
       </c>
       <c r="D31">
-        <v>-0.0218714027703896</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02456745885026237</v>
+      </c>
+      <c r="E31">
+        <v>0.02958602542505389</v>
+      </c>
+      <c r="F31">
+        <v>0.00144389568718588</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04770728073882882</v>
+        <v>-0.05160847779406163</v>
       </c>
       <c r="C32">
-        <v>0.002341701230368495</v>
+        <v>-0.0009704382773912168</v>
       </c>
       <c r="D32">
-        <v>-0.02813835344246476</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03311186025475098</v>
+      </c>
+      <c r="E32">
+        <v>0.0350704924029866</v>
+      </c>
+      <c r="F32">
+        <v>-0.003324509312231127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09077737593644075</v>
+        <v>-0.09038539488704443</v>
       </c>
       <c r="C33">
-        <v>0.01417301476614388</v>
+        <v>0.008181220064486669</v>
       </c>
       <c r="D33">
-        <v>-0.09101578075243016</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.104679186117485</v>
+      </c>
+      <c r="E33">
+        <v>0.04942275500302316</v>
+      </c>
+      <c r="F33">
+        <v>-0.04296838608201861</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06879095471694598</v>
+        <v>-0.06720042476832279</v>
       </c>
       <c r="C34">
-        <v>0.01594627121934252</v>
+        <v>0.01110599951551369</v>
       </c>
       <c r="D34">
-        <v>-0.0982129006928907</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1101517874051159</v>
+      </c>
+      <c r="E34">
+        <v>0.03927758408359769</v>
+      </c>
+      <c r="F34">
+        <v>-0.03497543330825622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02614146695848263</v>
+        <v>-0.0275961023080432</v>
       </c>
       <c r="C35">
-        <v>0.004265709366377687</v>
+        <v>0.003723327454974715</v>
       </c>
       <c r="D35">
-        <v>-0.008286803411612613</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01180031172344532</v>
+      </c>
+      <c r="E35">
+        <v>0.01581637521734294</v>
+      </c>
+      <c r="F35">
+        <v>-7.079826121803433e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02517387562007942</v>
+        <v>-0.02868017329859357</v>
       </c>
       <c r="C36">
-        <v>0.008352871312227316</v>
+        <v>0.007259252772062959</v>
       </c>
       <c r="D36">
-        <v>-0.03860329097604615</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03995984748078319</v>
+      </c>
+      <c r="E36">
+        <v>0.01990546582580342</v>
+      </c>
+      <c r="F36">
+        <v>-0.01503063140189836</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002156656382088719</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006943885507009462</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003407447531320339</v>
+      </c>
+      <c r="E37">
+        <v>0.0005783267122441459</v>
+      </c>
+      <c r="F37">
+        <v>0.00131286031636401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.109752756982795</v>
+        <v>-0.09881614074243768</v>
       </c>
       <c r="C39">
-        <v>0.0232553054517706</v>
+        <v>0.01670548147694715</v>
       </c>
       <c r="D39">
-        <v>-0.1496224052892968</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1525030012378784</v>
+      </c>
+      <c r="E39">
+        <v>0.06217716903198778</v>
+      </c>
+      <c r="F39">
+        <v>-0.02138045884578041</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03899687954367339</v>
+        <v>-0.04455120293197522</v>
       </c>
       <c r="C40">
-        <v>0.00965772825167252</v>
+        <v>0.008274169216460689</v>
       </c>
       <c r="D40">
-        <v>-0.02465221096611412</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03327546178481255</v>
+      </c>
+      <c r="E40">
+        <v>0.003801117941095532</v>
+      </c>
+      <c r="F40">
+        <v>0.0159343764022297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02485358811860192</v>
+        <v>-0.02724563583419842</v>
       </c>
       <c r="C41">
-        <v>0.007629944199061497</v>
+        <v>0.006978889155894778</v>
       </c>
       <c r="D41">
-        <v>-0.007820349289901135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.009936195092249866</v>
+      </c>
+      <c r="E41">
+        <v>0.01317871372997984</v>
+      </c>
+      <c r="F41">
+        <v>0.007449770408939492</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04156846458401021</v>
+        <v>-0.03997571545168377</v>
       </c>
       <c r="C43">
-        <v>0.008621245948582218</v>
+        <v>0.00785919490765453</v>
       </c>
       <c r="D43">
-        <v>-0.01777914244530941</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01962355192259205</v>
+      </c>
+      <c r="E43">
+        <v>0.02765333164746835</v>
+      </c>
+      <c r="F43">
+        <v>0.01636275118962112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06743175164447943</v>
+        <v>-0.07721133641366633</v>
       </c>
       <c r="C44">
-        <v>0.02433294347605304</v>
+        <v>0.02037580687228822</v>
       </c>
       <c r="D44">
-        <v>-0.09464995265986792</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09535498761029006</v>
+      </c>
+      <c r="E44">
+        <v>0.06309359135733207</v>
+      </c>
+      <c r="F44">
+        <v>-0.1688651833824764</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02233870870468094</v>
+        <v>-0.0249629881979013</v>
       </c>
       <c r="C46">
-        <v>0.004650509827678013</v>
+        <v>0.003783890712666709</v>
       </c>
       <c r="D46">
-        <v>-0.01107401622007616</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01429582297453268</v>
+      </c>
+      <c r="E46">
+        <v>0.03204330360473879</v>
+      </c>
+      <c r="F46">
+        <v>0.005058655024844759</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05372375117678215</v>
+        <v>-0.05286274239733418</v>
       </c>
       <c r="C47">
-        <v>0.005853057450591166</v>
+        <v>0.004784096853085689</v>
       </c>
       <c r="D47">
-        <v>-0.007460585153609486</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01103019470588962</v>
+      </c>
+      <c r="E47">
+        <v>0.02487625618163433</v>
+      </c>
+      <c r="F47">
+        <v>0.0319014251146304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04852379164137911</v>
+        <v>-0.05150791141987608</v>
       </c>
       <c r="C48">
-        <v>0.00544881510321563</v>
+        <v>0.002773979640428829</v>
       </c>
       <c r="D48">
-        <v>-0.04788036900220408</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05075345918119647</v>
+      </c>
+      <c r="E48">
+        <v>-0.002879730214031154</v>
+      </c>
+      <c r="F48">
+        <v>-0.01248968304085425</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1983830943061126</v>
+        <v>-0.2002352472822255</v>
       </c>
       <c r="C49">
-        <v>0.02434189278475797</v>
+        <v>0.02208774864930254</v>
       </c>
       <c r="D49">
-        <v>0.01281807839459301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.004654815478190371</v>
+      </c>
+      <c r="E49">
+        <v>0.02835558931281246</v>
+      </c>
+      <c r="F49">
+        <v>-0.05073428608469333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04944254251755993</v>
+        <v>-0.05169116583491572</v>
       </c>
       <c r="C50">
-        <v>0.01348310437764935</v>
+        <v>0.01212186780904377</v>
       </c>
       <c r="D50">
-        <v>-0.02161360585519103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02444044286884902</v>
+      </c>
+      <c r="E50">
+        <v>0.03257187179375394</v>
+      </c>
+      <c r="F50">
+        <v>-0.009187021812078405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1546941543241116</v>
+        <v>-0.147739923184129</v>
       </c>
       <c r="C52">
-        <v>0.0222007547783624</v>
+        <v>0.01992870619685445</v>
       </c>
       <c r="D52">
-        <v>-0.04120313496411531</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.0428355016286047</v>
+      </c>
+      <c r="E52">
+        <v>0.02052871870037627</v>
+      </c>
+      <c r="F52">
+        <v>-0.04150930915371812</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1743908055929557</v>
+        <v>-0.1684118540719742</v>
       </c>
       <c r="C53">
-        <v>0.02350251753490801</v>
+        <v>0.02312485109043129</v>
       </c>
       <c r="D53">
-        <v>-0.004953490735778044</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006243818750340816</v>
+      </c>
+      <c r="E53">
+        <v>0.02702713367090469</v>
+      </c>
+      <c r="F53">
+        <v>-0.07477086357507701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01675286266997238</v>
+        <v>-0.01881801326302909</v>
       </c>
       <c r="C54">
-        <v>0.01218351343415727</v>
+        <v>0.01105386796200582</v>
       </c>
       <c r="D54">
-        <v>-0.02918432647858348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02929633747925051</v>
+      </c>
+      <c r="E54">
+        <v>0.02127183079826165</v>
+      </c>
+      <c r="F54">
+        <v>0.00226356543080562</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1184370806124976</v>
+        <v>-0.1163793860797256</v>
       </c>
       <c r="C55">
-        <v>0.02045597054678836</v>
+        <v>0.02020084967907533</v>
       </c>
       <c r="D55">
-        <v>-0.003581152005521236</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008449518764881854</v>
+      </c>
+      <c r="E55">
+        <v>0.02556310130991985</v>
+      </c>
+      <c r="F55">
+        <v>-0.04636217365907924</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1810419327914537</v>
+        <v>-0.1756740133543803</v>
       </c>
       <c r="C56">
-        <v>0.02157138907751824</v>
+        <v>0.02139003948159999</v>
       </c>
       <c r="D56">
-        <v>0.007041296437261918</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002213106063695807</v>
+      </c>
+      <c r="E56">
+        <v>0.03094799340149589</v>
+      </c>
+      <c r="F56">
+        <v>-0.05557978212717944</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04657704117440967</v>
+        <v>-0.04540060334936082</v>
       </c>
       <c r="C58">
-        <v>0.005077422905088652</v>
+        <v>0.0002460475795800411</v>
       </c>
       <c r="D58">
-        <v>-0.06575561294295638</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07604383454443495</v>
+      </c>
+      <c r="E58">
+        <v>0.03583530008077144</v>
+      </c>
+      <c r="F58">
+        <v>0.03644404485680398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1610873597317686</v>
+        <v>-0.167694472951097</v>
       </c>
       <c r="C59">
-        <v>0.01811753662621259</v>
+        <v>0.02455271795165449</v>
       </c>
       <c r="D59">
-        <v>0.2225584706777896</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2161336618434988</v>
+      </c>
+      <c r="E59">
+        <v>-0.05114644313090012</v>
+      </c>
+      <c r="F59">
+        <v>0.04195637306162958</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2381341941875544</v>
+        <v>-0.2299094458800123</v>
       </c>
       <c r="C60">
-        <v>0.005730532106751578</v>
+        <v>0.002251595845889113</v>
       </c>
       <c r="D60">
-        <v>-0.03642813572067737</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03905202839035875</v>
+      </c>
+      <c r="E60">
+        <v>-0.001599826263133985</v>
+      </c>
+      <c r="F60">
+        <v>-0.006345174138446149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08062555854919151</v>
+        <v>-0.07415590251827438</v>
       </c>
       <c r="C61">
-        <v>0.01706068701853863</v>
+        <v>0.01152503512575431</v>
       </c>
       <c r="D61">
-        <v>-0.1109279552092802</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1173421170094369</v>
+      </c>
+      <c r="E61">
+        <v>0.04054302070166551</v>
+      </c>
+      <c r="F61">
+        <v>-0.007434188327341705</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1730510665601349</v>
+        <v>-0.1688861742282684</v>
       </c>
       <c r="C62">
-        <v>0.02518339859404296</v>
+        <v>0.02395984398675357</v>
       </c>
       <c r="D62">
-        <v>-0.0001396891066971076</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.007020435511287119</v>
+      </c>
+      <c r="E62">
+        <v>0.03330931280875089</v>
+      </c>
+      <c r="F62">
+        <v>-0.04119082471828126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04187360676694473</v>
+        <v>-0.04618862055514215</v>
       </c>
       <c r="C63">
-        <v>0.005881652351909973</v>
+        <v>0.002565801897521274</v>
       </c>
       <c r="D63">
-        <v>-0.04986234440920827</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06031245641039017</v>
+      </c>
+      <c r="E63">
+        <v>0.02574881214324226</v>
+      </c>
+      <c r="F63">
+        <v>-0.0003085437521367271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1149196124573652</v>
+        <v>-0.1117392526619378</v>
       </c>
       <c r="C64">
-        <v>0.01744928050234235</v>
+        <v>0.01403439920944751</v>
       </c>
       <c r="D64">
-        <v>-0.03408104939524499</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04194588231525407</v>
+      </c>
+      <c r="E64">
+        <v>0.02547950150614108</v>
+      </c>
+      <c r="F64">
+        <v>-0.02703626195870087</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1453599463659046</v>
+        <v>-0.1525278842457513</v>
       </c>
       <c r="C65">
-        <v>0.03742595601972554</v>
+        <v>0.03702727898618814</v>
       </c>
       <c r="D65">
-        <v>0.05766982486729517</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04541974379888227</v>
+      </c>
+      <c r="E65">
+        <v>0.005787451302355005</v>
+      </c>
+      <c r="F65">
+        <v>-0.03765932213593265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.132523054594208</v>
+        <v>-0.1188576147699683</v>
       </c>
       <c r="C66">
-        <v>0.02181497609988841</v>
+        <v>0.01501092967511665</v>
       </c>
       <c r="D66">
-        <v>-0.1330018471248194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1419160499429759</v>
+      </c>
+      <c r="E66">
+        <v>0.06646561642381786</v>
+      </c>
+      <c r="F66">
+        <v>-0.02741528510230497</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06327246348532624</v>
+        <v>-0.05609667019511193</v>
       </c>
       <c r="C67">
-        <v>0.006649718484798817</v>
+        <v>0.004244598189666821</v>
       </c>
       <c r="D67">
-        <v>-0.05549431862369521</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05825800665301156</v>
+      </c>
+      <c r="E67">
+        <v>0.02277820191344853</v>
+      </c>
+      <c r="F67">
+        <v>0.03421485487587787</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1083843393773157</v>
+        <v>-0.1180656455399939</v>
       </c>
       <c r="C68">
-        <v>0.02640874204283601</v>
+        <v>0.03490123113185057</v>
       </c>
       <c r="D68">
-        <v>0.2636705276071296</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2603759982631544</v>
+      </c>
+      <c r="E68">
+        <v>-0.08812898073704145</v>
+      </c>
+      <c r="F68">
+        <v>-0.0006286323012544683</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03950936622120083</v>
+        <v>-0.03865878277107947</v>
       </c>
       <c r="C69">
-        <v>0.002651872817188451</v>
+        <v>0.001691970446193098</v>
       </c>
       <c r="D69">
-        <v>-0.008408963025747089</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009722295607084073</v>
+      </c>
+      <c r="E69">
+        <v>0.02833500552864354</v>
+      </c>
+      <c r="F69">
+        <v>0.001132356808240653</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06821620418563498</v>
+        <v>-0.06777362844085992</v>
       </c>
       <c r="C70">
-        <v>-0.02383396096288354</v>
+        <v>-0.0261549170455999</v>
       </c>
       <c r="D70">
-        <v>-0.02339369542920226</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02855505817718233</v>
+      </c>
+      <c r="E70">
+        <v>-0.02440729479263774</v>
+      </c>
+      <c r="F70">
+        <v>0.1825795472604752</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1275133339919968</v>
+        <v>-0.1384717686618747</v>
       </c>
       <c r="C71">
-        <v>0.03128591702564542</v>
+        <v>0.03966832660386236</v>
       </c>
       <c r="D71">
-        <v>0.2786272667016986</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2690565587399985</v>
+      </c>
+      <c r="E71">
+        <v>-0.09692998659612408</v>
+      </c>
+      <c r="F71">
+        <v>-0.005676227117043771</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1365460527154374</v>
+        <v>-0.1436674141638453</v>
       </c>
       <c r="C72">
-        <v>0.02950311146712314</v>
+        <v>0.02972403642993205</v>
       </c>
       <c r="D72">
-        <v>0.0005544536229615969</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003631423418724533</v>
+      </c>
+      <c r="E72">
+        <v>0.03897709516998854</v>
+      </c>
+      <c r="F72">
+        <v>-0.02821166069712165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2030021744744266</v>
+        <v>-0.2038882579728975</v>
       </c>
       <c r="C73">
-        <v>0.01948045855123642</v>
+        <v>0.01542471711130654</v>
       </c>
       <c r="D73">
-        <v>-0.008173881851774163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01849740979217047</v>
+      </c>
+      <c r="E73">
+        <v>0.06346823200745604</v>
+      </c>
+      <c r="F73">
+        <v>-0.04490518765262671</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.0907594488629814</v>
+        <v>-0.09174928565753877</v>
       </c>
       <c r="C74">
-        <v>0.01509483456501504</v>
+        <v>0.01437968623078792</v>
       </c>
       <c r="D74">
-        <v>-0.01400196094265153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01693836648746213</v>
+      </c>
+      <c r="E74">
+        <v>0.0417923479961021</v>
+      </c>
+      <c r="F74">
+        <v>-0.05239914046963883</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1332224923160738</v>
+        <v>-0.1253850693728846</v>
       </c>
       <c r="C75">
-        <v>0.03270083301591454</v>
+        <v>0.03069036265798717</v>
       </c>
       <c r="D75">
-        <v>-0.02358097590459067</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02950560837796324</v>
+      </c>
+      <c r="E75">
+        <v>0.05527918607839462</v>
+      </c>
+      <c r="F75">
+        <v>-0.02121060145938606</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08142763741393617</v>
+        <v>-0.0920189650112478</v>
       </c>
       <c r="C77">
-        <v>0.01476875087752475</v>
+        <v>0.009463396194078561</v>
       </c>
       <c r="D77">
-        <v>-0.1136449782187283</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1171436156716811</v>
+      </c>
+      <c r="E77">
+        <v>0.04856348335347141</v>
+      </c>
+      <c r="F77">
+        <v>-0.03539375779245681</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1010225578665121</v>
+        <v>-0.1009245584388623</v>
       </c>
       <c r="C78">
-        <v>0.04540410597054569</v>
+        <v>0.04125326278359871</v>
       </c>
       <c r="D78">
-        <v>-0.1109435881060872</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1099277093556209</v>
+      </c>
+      <c r="E78">
+        <v>0.07532344959285404</v>
+      </c>
+      <c r="F78">
+        <v>-0.05012217530318683</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1672145092353894</v>
+        <v>-0.1637499924138766</v>
       </c>
       <c r="C79">
-        <v>0.02809992164649024</v>
+        <v>0.02667649558573543</v>
       </c>
       <c r="D79">
-        <v>-0.005995710559364194</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01242777986908303</v>
+      </c>
+      <c r="E79">
+        <v>0.04482174577987445</v>
+      </c>
+      <c r="F79">
+        <v>-0.01238821413770387</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08100875942146418</v>
+        <v>-0.0794829486309462</v>
       </c>
       <c r="C80">
-        <v>0.003243678470565929</v>
+        <v>0.0003218223250736797</v>
       </c>
       <c r="D80">
-        <v>-0.05299947435885892</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05353715927990203</v>
+      </c>
+      <c r="E80">
+        <v>0.03694956144819349</v>
+      </c>
+      <c r="F80">
+        <v>0.02804555785026916</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1206447107556937</v>
+        <v>-0.1154549993431662</v>
       </c>
       <c r="C81">
-        <v>0.03456576778471688</v>
+        <v>0.03390327273410513</v>
       </c>
       <c r="D81">
-        <v>-0.007333539460616629</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01228698457463859</v>
+      </c>
+      <c r="E81">
+        <v>0.05182068334139966</v>
+      </c>
+      <c r="F81">
+        <v>-0.01824599553307701</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1661264566307169</v>
+        <v>-0.1645636381675847</v>
       </c>
       <c r="C82">
-        <v>0.02833328123475741</v>
+        <v>0.02854304711688044</v>
       </c>
       <c r="D82">
-        <v>-0.005941694283875228</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.00364585101123023</v>
+      </c>
+      <c r="E82">
+        <v>0.02503831589109701</v>
+      </c>
+      <c r="F82">
+        <v>-0.08281354332657984</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06043067664352997</v>
+        <v>-0.05487736983196446</v>
       </c>
       <c r="C83">
-        <v>0.006066054364017713</v>
+        <v>0.003927567042366414</v>
       </c>
       <c r="D83">
-        <v>-0.03631697022244426</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0394758498689802</v>
+      </c>
+      <c r="E83">
+        <v>-0.0002604049591195987</v>
+      </c>
+      <c r="F83">
+        <v>0.0358898168005768</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05927571647803535</v>
+        <v>-0.05510013550293252</v>
       </c>
       <c r="C84">
-        <v>0.0135107493358673</v>
+        <v>0.01069900640292081</v>
       </c>
       <c r="D84">
-        <v>-0.07324857361303908</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07520584183458139</v>
+      </c>
+      <c r="E84">
+        <v>0.01196376799604753</v>
+      </c>
+      <c r="F84">
+        <v>-0.01498720078434689</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1401404031838362</v>
+        <v>-0.1351966589647533</v>
       </c>
       <c r="C85">
-        <v>0.03194881340490953</v>
+        <v>0.03121123527438982</v>
       </c>
       <c r="D85">
-        <v>-0.005849207468598177</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009513418169616228</v>
+      </c>
+      <c r="E85">
+        <v>0.03534541540314722</v>
+      </c>
+      <c r="F85">
+        <v>-0.04882353715923724</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09899713719400231</v>
+        <v>-0.09230712038432733</v>
       </c>
       <c r="C86">
-        <v>-0.002054129597768898</v>
+        <v>-0.005272677061263057</v>
       </c>
       <c r="D86">
-        <v>-0.01729511596871363</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05036532496310169</v>
+      </c>
+      <c r="E86">
+        <v>0.2288810995966624</v>
+      </c>
+      <c r="F86">
+        <v>0.8960995527442251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09500197449827123</v>
+        <v>-0.09170103431094231</v>
       </c>
       <c r="C87">
-        <v>0.02884551638722019</v>
+        <v>0.02089674398312419</v>
       </c>
       <c r="D87">
-        <v>-0.07053009015190828</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09025316631096279</v>
+      </c>
+      <c r="E87">
+        <v>-0.0578606240775409</v>
+      </c>
+      <c r="F87">
+        <v>-0.04958653326382898</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06329828612382182</v>
+        <v>-0.0615139039623266</v>
       </c>
       <c r="C88">
-        <v>0.006382464438946345</v>
+        <v>0.003360838877646398</v>
       </c>
       <c r="D88">
-        <v>-0.04891080498337395</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04976154087389685</v>
+      </c>
+      <c r="E88">
+        <v>0.02652520305049925</v>
+      </c>
+      <c r="F88">
+        <v>-0.01341016532964813</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1190980771246864</v>
+        <v>-0.1279418123456324</v>
       </c>
       <c r="C89">
-        <v>0.007146691714797</v>
+        <v>0.01484976909694857</v>
       </c>
       <c r="D89">
-        <v>0.239600962969651</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2409539826227076</v>
+      </c>
+      <c r="E89">
+        <v>-0.08974248665317575</v>
+      </c>
+      <c r="F89">
+        <v>0.007838091957627158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1390676874197155</v>
+        <v>-0.1532498321025627</v>
       </c>
       <c r="C90">
-        <v>0.02731907811930905</v>
+        <v>0.03624222278554514</v>
       </c>
       <c r="D90">
-        <v>0.2654645118055142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2667520642699095</v>
+      </c>
+      <c r="E90">
+        <v>-0.1146422083589372</v>
+      </c>
+      <c r="F90">
+        <v>0.008794805805070659</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1231347079784745</v>
+        <v>-0.1204066337271238</v>
       </c>
       <c r="C91">
-        <v>0.02262960842042482</v>
+        <v>0.02254986556710774</v>
       </c>
       <c r="D91">
-        <v>0.02141217184751445</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01699638124454246</v>
+      </c>
+      <c r="E91">
+        <v>0.05430898671723458</v>
+      </c>
+      <c r="F91">
+        <v>0.002143048228974808</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1396794576240166</v>
+        <v>-0.1461280695906499</v>
       </c>
       <c r="C92">
-        <v>0.01807286066426073</v>
+        <v>0.02713245808318919</v>
       </c>
       <c r="D92">
-        <v>0.2947999465569494</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2919169436763102</v>
+      </c>
+      <c r="E92">
+        <v>-0.1014765740046751</v>
+      </c>
+      <c r="F92">
+        <v>0.01920897498351339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.142963733514453</v>
+        <v>-0.1556473522345066</v>
       </c>
       <c r="C93">
-        <v>0.02365358482121105</v>
+        <v>0.03152002750083999</v>
       </c>
       <c r="D93">
-        <v>0.262971865178829</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2620686890339159</v>
+      </c>
+      <c r="E93">
+        <v>-0.0742079091400669</v>
+      </c>
+      <c r="F93">
+        <v>-0.003002302272146433</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1330337409132067</v>
+        <v>-0.1249976767371728</v>
       </c>
       <c r="C94">
-        <v>0.02903667712999125</v>
+        <v>0.02652062489733593</v>
       </c>
       <c r="D94">
-        <v>-0.03864431275758615</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04170666390451535</v>
+      </c>
+      <c r="E94">
+        <v>0.05645974393364229</v>
+      </c>
+      <c r="F94">
+        <v>-0.0319606424382804</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1267861680831076</v>
+        <v>-0.1299088922396675</v>
       </c>
       <c r="C95">
-        <v>0.01115304315089215</v>
+        <v>0.005871900766717081</v>
       </c>
       <c r="D95">
-        <v>-0.08821553541122022</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09813391403653757</v>
+      </c>
+      <c r="E95">
+        <v>0.0592383372042566</v>
+      </c>
+      <c r="F95">
+        <v>-0.005111375040196531</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.135324799616606</v>
+        <v>-0.1267457386072809</v>
       </c>
       <c r="C96">
-        <v>-0.9850958579574925</v>
+        <v>-0.9852259745354682</v>
       </c>
       <c r="D96">
-        <v>0.0199160197864507</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04996727066160497</v>
+      </c>
+      <c r="E96">
+        <v>0.04973373656576452</v>
+      </c>
+      <c r="F96">
+        <v>-0.0428984013379333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1869801487287473</v>
+        <v>-0.1910305387526096</v>
       </c>
       <c r="C97">
-        <v>-0.002676003934310541</v>
+        <v>-0.003079536466717221</v>
       </c>
       <c r="D97">
-        <v>0.0311827709320745</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.03197482822606193</v>
+      </c>
+      <c r="E97">
+        <v>0.03630087966514355</v>
+      </c>
+      <c r="F97">
+        <v>0.1169936074898827</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1999701989200184</v>
+        <v>-0.2061343714329038</v>
       </c>
       <c r="C98">
-        <v>0.01428785366367812</v>
+        <v>0.01019240618916329</v>
       </c>
       <c r="D98">
-        <v>-0.01198075147778246</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01405908984111888</v>
+      </c>
+      <c r="E98">
+        <v>-0.08120492618955719</v>
+      </c>
+      <c r="F98">
+        <v>0.09470995700829182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05659148328283022</v>
+        <v>-0.05593116511010961</v>
       </c>
       <c r="C99">
-        <v>-0.001210582242457268</v>
+        <v>-0.003351753064301553</v>
       </c>
       <c r="D99">
-        <v>-0.0344213841560039</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04080074064287736</v>
+      </c>
+      <c r="E99">
+        <v>0.02590726937187804</v>
+      </c>
+      <c r="F99">
+        <v>-0.002864838612665867</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1483790409981608</v>
+        <v>-0.1341123240499103</v>
       </c>
       <c r="C100">
-        <v>-0.03560663730064412</v>
+        <v>-0.04764149139597732</v>
       </c>
       <c r="D100">
-        <v>-0.3976298133439308</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3598646620484466</v>
+      </c>
+      <c r="E100">
+        <v>-0.8803460204351876</v>
+      </c>
+      <c r="F100">
+        <v>0.157258314797445</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0264165460657382</v>
+        <v>-0.02907922676681953</v>
       </c>
       <c r="C101">
-        <v>0.01015786769086576</v>
+        <v>0.009376217289255981</v>
       </c>
       <c r="D101">
-        <v>-0.0293507205003913</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03008671378923165</v>
+      </c>
+      <c r="E101">
+        <v>0.0183304809643355</v>
+      </c>
+      <c r="F101">
+        <v>0.01471252008923814</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
